--- a/powerbi/waqi_data.xlsx
+++ b/powerbi/waqi_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45759.16666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1374,19 +1374,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.7</v>
+        <v>13.3</v>
       </c>
       <c r="H20" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I20" t="n">
-        <v>1014.9</v>
+        <v>1035.1</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1394,21 +1394,21 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45759.20833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1421,45 +1421,45 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>13.3</v>
       </c>
       <c r="H21" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I21" t="n">
-        <v>1014.7</v>
+        <v>1035.1</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D22" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1468,45 +1468,45 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H22" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I22" t="n">
-        <v>1009</v>
+        <v>1035.1</v>
       </c>
       <c r="J22" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>68</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D23" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1515,45 +1515,45 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I23" t="n">
-        <v>1009</v>
+        <v>1035.1</v>
       </c>
       <c r="J23" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>74</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1562,45 +1562,45 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H24" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I24" t="n">
-        <v>1009</v>
+        <v>1035.1</v>
       </c>
       <c r="J24" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>34.2</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1609,45 +1609,45 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="I25" t="n">
-        <v>1009</v>
+        <v>1035.1</v>
       </c>
       <c r="J25" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D26" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1656,45 +1656,45 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>97</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1014.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11</v>
+      </c>
+      <c r="K26" t="n">
+        <v>57</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>10</v>
-      </c>
-      <c r="H26" t="n">
-        <v>19</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>12</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>no2</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.20833333334</v>
       </c>
       <c r="D27" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1703,45 +1703,45 @@
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>97</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>82</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>10</v>
-      </c>
-      <c r="H27" t="n">
-        <v>19</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>13</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>so2</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.29166666666</v>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1750,19 +1750,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="I28" t="n">
-        <v>1009</v>
+        <v>1014.6</v>
       </c>
       <c r="J28" t="n">
-        <v>14.9</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1770,21 +1770,21 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D29" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1809,29 +1809,29 @@
         <v>14.9</v>
       </c>
       <c r="K29" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B30" t="n">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D30" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1856,29 +1856,29 @@
         <v>14.9</v>
       </c>
       <c r="K30" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>32.9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B31" t="n">
         <v>3</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1903,29 +1903,29 @@
         <v>14.9</v>
       </c>
       <c r="K31" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1.9</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1950,11 +1950,11 @@
         <v>14.9</v>
       </c>
       <c r="K32" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1963,16 +1963,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D33" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1997,29 +1997,29 @@
         <v>14.9</v>
       </c>
       <c r="K33" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D34" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2032,41 +2032,41 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J34" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K34" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>74</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D35" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2079,88 +2079,88 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J35" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K35" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D36" t="n">
+        <v>75</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>10</v>
+      </c>
+      <c r="H36" t="n">
+        <v>19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1009</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K36" t="n">
         <v>84</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>9</v>
-      </c>
-      <c r="H36" t="n">
-        <v>20</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>115</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
       <c r="M36" t="n">
-        <v>33.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D37" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2173,41 +2173,41 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J37" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K37" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1.9</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D38" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2220,41 +2220,41 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J38" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K38" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D39" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2267,45 +2267,45 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J39" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K39" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.75</v>
       </c>
       <c r="D40" t="n">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2314,45 +2314,45 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>32.8</v>
+        <v>10</v>
       </c>
       <c r="H40" t="n">
-        <v>37.05</v>
+        <v>19</v>
       </c>
       <c r="I40" t="n">
-        <v>981.3</v>
+        <v>1009</v>
       </c>
       <c r="J40" t="n">
-        <v>1.15</v>
+        <v>14.9</v>
       </c>
       <c r="K40" t="n">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>144</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D41" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2361,45 +2361,45 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H41" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I41" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J41" t="n">
-        <v>1.15</v>
+        <v>11.3</v>
       </c>
       <c r="K41" t="n">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D42" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2408,45 +2408,45 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H42" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I42" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J42" t="n">
-        <v>1.15</v>
+        <v>11.3</v>
       </c>
       <c r="K42" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>94.5</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D43" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2455,45 +2455,45 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H43" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J43" t="n">
-        <v>1.15</v>
+        <v>11.3</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>5.2</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D44" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2502,45 +2502,45 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I44" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J44" t="n">
-        <v>1.15</v>
+        <v>11.3</v>
       </c>
       <c r="K44" t="n">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>8.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D45" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2549,45 +2549,45 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H45" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I45" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J45" t="n">
-        <v>1.15</v>
+        <v>11.3</v>
       </c>
       <c r="K45" t="n">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>8.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D46" t="n">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2596,45 +2596,45 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>11.3</v>
       </c>
       <c r="K46" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>124</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D47" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2643,45 +2643,45 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H47" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>11.8</v>
       </c>
       <c r="K47" t="n">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D48" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2690,45 +2690,45 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H48" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I48" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J48" t="n">
-        <v>1.05</v>
+        <v>11.8</v>
       </c>
       <c r="K48" t="n">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>78.2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D49" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2737,45 +2737,45 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J49" t="n">
-        <v>1.05</v>
+        <v>11.8</v>
       </c>
       <c r="K49" t="n">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>4.6</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D50" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2784,45 +2784,45 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H50" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I50" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J50" t="n">
-        <v>1.05</v>
+        <v>11.8</v>
       </c>
       <c r="K50" t="n">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D51" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2831,45 +2831,45 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H51" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I51" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J51" t="n">
-        <v>1.05</v>
+        <v>11.8</v>
       </c>
       <c r="K51" t="n">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D52" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2878,41 +2878,41 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>32.275</v>
+        <v>9</v>
       </c>
       <c r="H52" t="n">
-        <v>37.325</v>
+        <v>20</v>
       </c>
       <c r="I52" t="n">
-        <v>980.9</v>
+        <v>1010</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6</v>
+        <v>11.8</v>
       </c>
       <c r="K52" t="n">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>95</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B53" t="n">
         <v>4</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D53" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2925,41 +2925,41 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H53" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I53" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J53" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K53" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B54" t="n">
         <v>4</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D54" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2972,41 +2972,41 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H54" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I54" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K54" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>75.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B55" t="n">
         <v>4</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D55" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3019,41 +3019,41 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H55" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I55" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K55" t="n">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>4.3</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B56" t="n">
         <v>4</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D56" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3066,41 +3066,41 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H56" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I56" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K56" t="n">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B57" t="n">
         <v>4</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D57" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3113,41 +3113,41 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H57" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I57" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K57" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D58" t="n">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3160,41 +3160,41 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>16.1</v>
+        <v>32.8</v>
       </c>
       <c r="H58" t="n">
-        <v>48.6</v>
+        <v>37.05</v>
       </c>
       <c r="I58" t="n">
-        <v>1009.4</v>
+        <v>981.3</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="K58" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>70</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D59" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3207,41 +3207,41 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>16.1</v>
+        <v>32.825</v>
       </c>
       <c r="H59" t="n">
-        <v>48.6</v>
+        <v>36.8</v>
       </c>
       <c r="I59" t="n">
-        <v>1009.4</v>
+        <v>981.125</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="K59" t="n">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D60" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3254,41 +3254,41 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>16.1</v>
+        <v>32.825</v>
       </c>
       <c r="H60" t="n">
-        <v>48.6</v>
+        <v>36.8</v>
       </c>
       <c r="I60" t="n">
-        <v>1009.4</v>
+        <v>981.125</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="K60" t="n">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>27.8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D61" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3301,41 +3301,41 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>16.1</v>
+        <v>32.825</v>
       </c>
       <c r="H61" t="n">
-        <v>48.6</v>
+        <v>36.8</v>
       </c>
       <c r="I61" t="n">
-        <v>1009.4</v>
+        <v>981.125</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>0.1</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D62" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3348,41 +3348,41 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>16.1</v>
+        <v>32.825</v>
       </c>
       <c r="H62" t="n">
-        <v>48.6</v>
+        <v>36.8</v>
       </c>
       <c r="I62" t="n">
-        <v>1009.4</v>
+        <v>981.125</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="K62" t="n">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>33.6</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D63" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3395,41 +3395,41 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>16.1</v>
+        <v>32.825</v>
       </c>
       <c r="H63" t="n">
-        <v>48.6</v>
+        <v>36.8</v>
       </c>
       <c r="I63" t="n">
-        <v>1009.4</v>
+        <v>981.125</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D64" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3442,41 +3442,41 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>18.7</v>
+        <v>32.825</v>
       </c>
       <c r="H64" t="n">
-        <v>45</v>
+        <v>36.8</v>
       </c>
       <c r="I64" t="n">
-        <v>1008.7</v>
+        <v>981.125</v>
       </c>
       <c r="J64" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>63</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D65" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3489,41 +3489,41 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>18.7</v>
+        <v>32.275</v>
       </c>
       <c r="H65" t="n">
-        <v>45</v>
+        <v>37.325</v>
       </c>
       <c r="I65" t="n">
-        <v>1008.7</v>
+        <v>980.9</v>
       </c>
       <c r="J65" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K65" t="n">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D66" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3536,41 +3536,41 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>18.7</v>
+        <v>32.275</v>
       </c>
       <c r="H66" t="n">
-        <v>45</v>
+        <v>37.325</v>
       </c>
       <c r="I66" t="n">
-        <v>1008.7</v>
+        <v>980.9</v>
       </c>
       <c r="J66" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K66" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>30.7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D67" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3583,41 +3583,41 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>18.7</v>
+        <v>32.275</v>
       </c>
       <c r="H67" t="n">
-        <v>45</v>
+        <v>37.325</v>
       </c>
       <c r="I67" t="n">
-        <v>1008.7</v>
+        <v>980.9</v>
       </c>
       <c r="J67" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K67" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>0.1</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D68" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3630,41 +3630,41 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>18.7</v>
+        <v>32.275</v>
       </c>
       <c r="H68" t="n">
-        <v>45</v>
+        <v>37.325</v>
       </c>
       <c r="I68" t="n">
-        <v>1008.7</v>
+        <v>980.9</v>
       </c>
       <c r="J68" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K68" t="n">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>29</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D69" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3677,45 +3677,45 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>18.7</v>
+        <v>32.275</v>
       </c>
       <c r="H69" t="n">
-        <v>45</v>
+        <v>37.325</v>
       </c>
       <c r="I69" t="n">
-        <v>1008.7</v>
+        <v>980.9</v>
       </c>
       <c r="J69" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K69" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D70" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3724,45 +3724,45 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>18.3</v>
+        <v>32.275</v>
       </c>
       <c r="H70" t="n">
-        <v>45.5</v>
+        <v>37.325</v>
       </c>
       <c r="I70" t="n">
-        <v>1008.8</v>
+        <v>980.9</v>
       </c>
       <c r="J70" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="K70" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D71" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3771,92 +3771,92 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>18.3</v>
+        <v>31.45</v>
       </c>
       <c r="H71" t="n">
-        <v>45.5</v>
+        <v>39.25</v>
       </c>
       <c r="I71" t="n">
-        <v>1008.8</v>
+        <v>981.2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.5</v>
+        <v>0.65</v>
       </c>
       <c r="K71" t="n">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D72" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="H72" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="I72" t="n">
+        <v>981.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K72" t="n">
+        <v>139</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="H72" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1008.8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>97</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
       <c r="M72" t="n">
-        <v>17.6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D73" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3865,45 +3865,45 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>18.3</v>
+        <v>31.45</v>
       </c>
       <c r="H73" t="n">
-        <v>45.5</v>
+        <v>39.25</v>
       </c>
       <c r="I73" t="n">
-        <v>1008.8</v>
+        <v>981.2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.5</v>
+        <v>0.65</v>
       </c>
       <c r="K73" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>0.1</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D74" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3912,73 +3912,1248 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>18.3</v>
+        <v>31.45</v>
       </c>
       <c r="H74" t="n">
-        <v>45.5</v>
+        <v>39.25</v>
       </c>
       <c r="I74" t="n">
-        <v>1008.8</v>
+        <v>981.2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.5</v>
+        <v>0.65</v>
       </c>
       <c r="K74" t="n">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>29</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>28</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45759.75</v>
+      </c>
+      <c r="D75" t="n">
+        <v>99</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="H75" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="I75" t="n">
+        <v>981.2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K75" t="n">
+        <v>142</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>28</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45759.75</v>
+      </c>
+      <c r="D76" t="n">
+        <v>99</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="H76" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="I76" t="n">
+        <v>981.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K76" t="n">
+        <v>143</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D77" t="n">
+        <v>70</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K77" t="n">
         <v>20</v>
       </c>
-      <c r="B75" t="n">
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D78" t="n">
+        <v>70</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K78" t="n">
+        <v>21</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D79" t="n">
+        <v>70</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>22</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D80" t="n">
+        <v>70</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>23</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D81" t="n">
+        <v>70</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>24</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D82" t="n">
+        <v>70</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K82" t="n">
+        <v>25</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>21</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D83" t="n">
+        <v>63</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H83" t="n">
+        <v>45</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K83" t="n">
+        <v>101</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>21</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D84" t="n">
+        <v>63</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>45</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K84" t="n">
+        <v>102</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D85" t="n">
+        <v>63</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H85" t="n">
+        <v>45</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>103</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>21</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D86" t="n">
+        <v>63</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>45</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>104</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>21</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D87" t="n">
+        <v>63</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H87" t="n">
+        <v>45</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>105</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>21</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D88" t="n">
+        <v>63</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H88" t="n">
+        <v>45</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>106</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="n">
         <v>45759.41666666666</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D89" t="n">
         <v>24</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
         <v>18.3</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H89" t="n">
         <v>45.5</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I89" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J89" t="n">
         <v>1.5</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K89" t="n">
+        <v>95</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>96</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D91" t="n">
+        <v>24</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H91" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>97</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D92" t="n">
+        <v>24</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H92" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>98</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D93" t="n">
+        <v>24</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>99</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D94" t="n">
+        <v>24</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H94" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K94" t="n">
         <v>100</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>so2</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="M94" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>29</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D95" t="n">
+        <v>33</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>144</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>29</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D96" t="n">
+        <v>33</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>145</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>29</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D97" t="n">
+        <v>33</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H97" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>146</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>29</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D98" t="n">
+        <v>33</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>147</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>29</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D99" t="n">
+        <v>33</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H99" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>148</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>29</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D100" t="n">
+        <v>33</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H100" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>149</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/powerbi/waqi_data.xlsx
+++ b/powerbi/waqi_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1634,16 +1634,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>19385</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45759.16666666666</v>
+        <v>45759.375</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>20.7</v>
       </c>
       <c r="H26" t="n">
-        <v>97</v>
+        <v>65.3</v>
       </c>
       <c r="I26" t="n">
-        <v>1014.9</v>
+        <v>1036.2</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1676,21 +1676,21 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>19385</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45759.20833333334</v>
+        <v>45759.375</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1703,41 +1703,41 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>20.7</v>
       </c>
       <c r="H27" t="n">
-        <v>97</v>
+        <v>65.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1014.7</v>
+        <v>1036.2</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>19385</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45759.29166666666</v>
+        <v>45759.375</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1750,45 +1750,45 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>20.7</v>
       </c>
       <c r="H28" t="n">
-        <v>97</v>
+        <v>65.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1014.6</v>
+        <v>1036.2</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>9</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>19385</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.375</v>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1797,45 +1797,45 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>10</v>
+        <v>20.7</v>
       </c>
       <c r="H29" t="n">
-        <v>19</v>
+        <v>65.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1009</v>
+        <v>1036.2</v>
       </c>
       <c r="J29" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>68</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>19385</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.375</v>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1844,45 +1844,45 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>20.7</v>
       </c>
       <c r="H30" t="n">
-        <v>19</v>
+        <v>65.3</v>
       </c>
       <c r="I30" t="n">
-        <v>1009</v>
+        <v>1036.2</v>
       </c>
       <c r="J30" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>74</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>19385</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.375</v>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1891,45 +1891,45 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>20.7</v>
       </c>
       <c r="H31" t="n">
-        <v>19</v>
+        <v>65.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1009</v>
+        <v>1036.2</v>
       </c>
       <c r="J31" t="n">
-        <v>14.9</v>
+        <v>0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>34.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D32" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1938,45 +1938,45 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H32" t="n">
+        <v>97</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1014.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11</v>
+      </c>
+      <c r="K32" t="n">
+        <v>57</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>10</v>
-      </c>
-      <c r="H32" t="n">
-        <v>19</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J32" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>co</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.20833333334</v>
       </c>
       <c r="D33" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1985,45 +1985,45 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H33" t="n">
+        <v>97</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>82</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>10</v>
-      </c>
-      <c r="H33" t="n">
-        <v>19</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K33" t="n">
-        <v>12</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>no2</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.29166666666</v>
       </c>
       <c r="D34" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2032,45 +2032,45 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="I34" t="n">
-        <v>1009</v>
+        <v>1014.6</v>
       </c>
       <c r="J34" t="n">
-        <v>14.9</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>19386</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.45833333334</v>
       </c>
       <c r="D35" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2079,19 +2079,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>96.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="J35" t="n">
-        <v>14.9</v>
+        <v>12.6</v>
       </c>
       <c r="K35" t="n">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2099,21 +2099,21 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D36" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2138,29 +2138,29 @@
         <v>14.9</v>
       </c>
       <c r="K36" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B37" t="n">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D37" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2185,29 +2185,29 @@
         <v>14.9</v>
       </c>
       <c r="K37" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>32.9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D38" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2232,29 +2232,29 @@
         <v>14.9</v>
       </c>
       <c r="K38" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1.9</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B39" t="n">
         <v>3</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D39" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2279,11 +2279,11 @@
         <v>14.9</v>
       </c>
       <c r="K39" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2292,16 +2292,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D40" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2326,29 +2326,29 @@
         <v>14.9</v>
       </c>
       <c r="K40" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D41" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2361,41 +2361,41 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J41" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K41" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>74</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D42" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2408,88 +2408,88 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I42" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J42" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K42" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D43" t="n">
+        <v>75</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1009</v>
+      </c>
+      <c r="J43" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K43" t="n">
         <v>84</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>9</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>115</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
       <c r="M43" t="n">
-        <v>33.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D44" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2502,41 +2502,41 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J44" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K44" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1.9</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D45" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2549,41 +2549,41 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I45" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J45" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K45" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D46" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2596,41 +2596,41 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J46" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K46" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D47" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2643,41 +2643,41 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J47" t="n">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="K47" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>74</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D48" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2699,32 +2699,32 @@
         <v>1010</v>
       </c>
       <c r="J48" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K48" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D49" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2746,32 +2746,32 @@
         <v>1010</v>
       </c>
       <c r="J49" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K49" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>32.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D50" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2793,32 +2793,32 @@
         <v>1010</v>
       </c>
       <c r="J50" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K50" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>2.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D51" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2840,14 +2840,14 @@
         <v>1010</v>
       </c>
       <c r="J51" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K51" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M51" t="n">
@@ -2856,16 +2856,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D52" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2887,36 +2887,36 @@
         <v>1010</v>
       </c>
       <c r="J52" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K52" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D53" t="n">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2925,45 +2925,45 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H53" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J53" t="n">
-        <v>1.15</v>
+        <v>11.3</v>
       </c>
       <c r="K53" t="n">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>144</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D54" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2972,45 +2972,45 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H54" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I54" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J54" t="n">
-        <v>1.15</v>
+        <v>11.8</v>
       </c>
       <c r="K54" t="n">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D55" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3019,45 +3019,45 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J55" t="n">
-        <v>1.15</v>
+        <v>11.8</v>
       </c>
       <c r="K55" t="n">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>94.5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D56" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3066,45 +3066,45 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H56" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I56" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J56" t="n">
-        <v>1.15</v>
+        <v>11.8</v>
       </c>
       <c r="K56" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5.2</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D57" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3113,45 +3113,45 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I57" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J57" t="n">
-        <v>1.15</v>
+        <v>11.8</v>
       </c>
       <c r="K57" t="n">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>8.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D58" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3160,45 +3160,45 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H58" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I58" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J58" t="n">
-        <v>1.15</v>
+        <v>11.8</v>
       </c>
       <c r="K58" t="n">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>8.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D59" t="n">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3207,45 +3207,45 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>32.825</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>36.8</v>
+        <v>20</v>
       </c>
       <c r="I59" t="n">
-        <v>981.125</v>
+        <v>1010</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>11.8</v>
       </c>
       <c r="K59" t="n">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>124</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19</v>
+        <v>19387</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D60" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3254,45 +3254,45 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>32.825</v>
+        <v>8</v>
       </c>
       <c r="H60" t="n">
-        <v>36.8</v>
+        <v>16</v>
       </c>
       <c r="I60" t="n">
-        <v>981.125</v>
+        <v>1007</v>
       </c>
       <c r="J60" t="n">
-        <v>1.05</v>
+        <v>10.8</v>
       </c>
       <c r="K60" t="n">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19</v>
+        <v>19387</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D61" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3301,45 +3301,45 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>32.825</v>
+        <v>8</v>
       </c>
       <c r="H61" t="n">
-        <v>36.8</v>
+        <v>16</v>
       </c>
       <c r="I61" t="n">
-        <v>981.125</v>
+        <v>1007</v>
       </c>
       <c r="J61" t="n">
-        <v>1.05</v>
+        <v>10.8</v>
       </c>
       <c r="K61" t="n">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>78.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19</v>
+        <v>19387</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D62" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3348,45 +3348,45 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>32.825</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
-        <v>36.8</v>
+        <v>16</v>
       </c>
       <c r="I62" t="n">
-        <v>981.125</v>
+        <v>1007</v>
       </c>
       <c r="J62" t="n">
-        <v>1.05</v>
+        <v>10.8</v>
       </c>
       <c r="K62" t="n">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>4.6</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>19</v>
+        <v>19387</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D63" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3395,45 +3395,45 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>32.825</v>
+        <v>8</v>
       </c>
       <c r="H63" t="n">
-        <v>36.8</v>
+        <v>16</v>
       </c>
       <c r="I63" t="n">
-        <v>981.125</v>
+        <v>1007</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>10.8</v>
       </c>
       <c r="K63" t="n">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>7.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>19</v>
+        <v>19387</v>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D64" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3442,45 +3442,45 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>32.825</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>36.8</v>
+        <v>16</v>
       </c>
       <c r="I64" t="n">
-        <v>981.125</v>
+        <v>1007</v>
       </c>
       <c r="J64" t="n">
-        <v>1.05</v>
+        <v>10.8</v>
       </c>
       <c r="K64" t="n">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>24</v>
+        <v>19387</v>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D65" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3489,41 +3489,41 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>32.275</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>37.325</v>
+        <v>16</v>
       </c>
       <c r="I65" t="n">
-        <v>980.9</v>
+        <v>1007</v>
       </c>
       <c r="J65" t="n">
-        <v>0.6</v>
+        <v>10.8</v>
       </c>
       <c r="K65" t="n">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>95</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B66" t="n">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D66" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3536,41 +3536,41 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H66" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I66" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K66" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B67" t="n">
         <v>4</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D67" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3583,41 +3583,41 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H67" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I67" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J67" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K67" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>75.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B68" t="n">
         <v>4</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D68" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3630,41 +3630,41 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H68" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I68" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J68" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K68" t="n">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>4.3</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D69" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3677,41 +3677,41 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H69" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I69" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J69" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K69" t="n">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B70" t="n">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D70" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3724,41 +3724,41 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H70" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I70" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K70" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.625</v>
       </c>
       <c r="D71" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3771,41 +3771,41 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>31.45</v>
+        <v>32.8</v>
       </c>
       <c r="H71" t="n">
-        <v>39.25</v>
+        <v>37.05</v>
       </c>
       <c r="I71" t="n">
-        <v>981.2</v>
+        <v>981.3</v>
       </c>
       <c r="J71" t="n">
-        <v>0.65</v>
+        <v>1.15</v>
       </c>
       <c r="K71" t="n">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>99</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B72" t="n">
         <v>4</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D72" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3818,41 +3818,41 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H72" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I72" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J72" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K72" t="n">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B73" t="n">
         <v>4</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D73" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3865,41 +3865,41 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H73" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I73" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J73" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K73" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>60.1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B74" t="n">
         <v>4</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D74" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3912,41 +3912,41 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H74" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I74" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J74" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K74" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>5.5</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B75" t="n">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D75" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3959,41 +3959,41 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H75" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I75" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J75" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K75" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>13.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B76" t="n">
         <v>4</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D76" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4006,41 +4006,41 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H76" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I76" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J76" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K76" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D77" t="n">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4053,41 +4053,41 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>16.1</v>
+        <v>32.825</v>
       </c>
       <c r="H77" t="n">
-        <v>48.6</v>
+        <v>36.8</v>
       </c>
       <c r="I77" t="n">
-        <v>1009.4</v>
+        <v>981.125</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2</v>
+        <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>70</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D78" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4100,41 +4100,41 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>16.1</v>
+        <v>32.275</v>
       </c>
       <c r="H78" t="n">
-        <v>48.6</v>
+        <v>37.325</v>
       </c>
       <c r="I78" t="n">
-        <v>1009.4</v>
+        <v>980.9</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K78" t="n">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D79" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4147,41 +4147,41 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>16.1</v>
+        <v>32.275</v>
       </c>
       <c r="H79" t="n">
-        <v>48.6</v>
+        <v>37.325</v>
       </c>
       <c r="I79" t="n">
-        <v>1009.4</v>
+        <v>980.9</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K79" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>27.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D80" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4194,41 +4194,41 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>16.1</v>
+        <v>32.275</v>
       </c>
       <c r="H80" t="n">
-        <v>48.6</v>
+        <v>37.325</v>
       </c>
       <c r="I80" t="n">
-        <v>1009.4</v>
+        <v>980.9</v>
       </c>
       <c r="J80" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K80" t="n">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>0.1</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D81" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4241,41 +4241,41 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>16.1</v>
+        <v>32.275</v>
       </c>
       <c r="H81" t="n">
-        <v>48.6</v>
+        <v>37.325</v>
       </c>
       <c r="I81" t="n">
-        <v>1009.4</v>
+        <v>980.9</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K81" t="n">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>33.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D82" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4288,41 +4288,41 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>16.1</v>
+        <v>32.275</v>
       </c>
       <c r="H82" t="n">
-        <v>48.6</v>
+        <v>37.325</v>
       </c>
       <c r="I82" t="n">
-        <v>1009.4</v>
+        <v>980.9</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K82" t="n">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>0.6</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D83" t="n">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4335,41 +4335,41 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>18.7</v>
+        <v>32.275</v>
       </c>
       <c r="H83" t="n">
-        <v>45</v>
+        <v>37.325</v>
       </c>
       <c r="I83" t="n">
-        <v>1008.7</v>
+        <v>980.9</v>
       </c>
       <c r="J83" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K83" t="n">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.75</v>
       </c>
       <c r="D84" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4382,41 +4382,41 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>18.7</v>
+        <v>31.45</v>
       </c>
       <c r="H84" t="n">
-        <v>45</v>
+        <v>39.25</v>
       </c>
       <c r="I84" t="n">
-        <v>1008.7</v>
+        <v>981.2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K84" t="n">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.75</v>
       </c>
       <c r="D85" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4429,41 +4429,41 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>18.7</v>
+        <v>31.45</v>
       </c>
       <c r="H85" t="n">
-        <v>45</v>
+        <v>39.25</v>
       </c>
       <c r="I85" t="n">
-        <v>1008.7</v>
+        <v>981.2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K85" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>30.7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.75</v>
       </c>
       <c r="D86" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>18.7</v>
+        <v>31.45</v>
       </c>
       <c r="H86" t="n">
-        <v>45</v>
+        <v>39.25</v>
       </c>
       <c r="I86" t="n">
-        <v>1008.7</v>
+        <v>981.2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K86" t="n">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>0.1</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.75</v>
       </c>
       <c r="D87" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4523,41 +4523,41 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>18.7</v>
+        <v>31.45</v>
       </c>
       <c r="H87" t="n">
-        <v>45</v>
+        <v>39.25</v>
       </c>
       <c r="I87" t="n">
-        <v>1008.7</v>
+        <v>981.2</v>
       </c>
       <c r="J87" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K87" t="n">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>29</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.75</v>
       </c>
       <c r="D88" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4570,45 +4570,45 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>18.7</v>
+        <v>31.45</v>
       </c>
       <c r="H88" t="n">
-        <v>45</v>
+        <v>39.25</v>
       </c>
       <c r="I88" t="n">
-        <v>1008.7</v>
+        <v>981.2</v>
       </c>
       <c r="J88" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K88" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>0.6</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D89" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4617,45 +4617,45 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>18.3</v>
+        <v>31.45</v>
       </c>
       <c r="H89" t="n">
-        <v>45.5</v>
+        <v>39.25</v>
       </c>
       <c r="I89" t="n">
-        <v>1008.8</v>
+        <v>981.2</v>
       </c>
       <c r="J89" t="n">
-        <v>1.5</v>
+        <v>0.65</v>
       </c>
       <c r="K89" t="n">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>70</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20</v>
+        <v>19388</v>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D90" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4664,92 +4664,92 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>18.3</v>
+        <v>27.8</v>
       </c>
       <c r="H90" t="n">
-        <v>45.5</v>
+        <v>43.1</v>
       </c>
       <c r="I90" t="n">
-        <v>1008.8</v>
+        <v>983.2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K90" t="n">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20</v>
+        <v>19388</v>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D91" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>983.2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>164</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="H91" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1008.8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K91" t="n">
-        <v>97</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
       <c r="M91" t="n">
-        <v>17.6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>20</v>
+        <v>19388</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4758,45 +4758,45 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>18.3</v>
+        <v>27.8</v>
       </c>
       <c r="H92" t="n">
-        <v>45.5</v>
+        <v>43.1</v>
       </c>
       <c r="I92" t="n">
-        <v>1008.8</v>
+        <v>983.2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K92" t="n">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>0.1</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>20</v>
+        <v>19388</v>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D93" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4805,45 +4805,45 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>18.3</v>
+        <v>27.8</v>
       </c>
       <c r="H93" t="n">
-        <v>45.5</v>
+        <v>43.1</v>
       </c>
       <c r="I93" t="n">
-        <v>1008.8</v>
+        <v>983.2</v>
       </c>
       <c r="J93" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K93" t="n">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>29</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>20</v>
+        <v>19388</v>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D94" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4852,45 +4852,45 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>18.3</v>
+        <v>27.8</v>
       </c>
       <c r="H94" t="n">
-        <v>45.5</v>
+        <v>43.1</v>
       </c>
       <c r="I94" t="n">
-        <v>1008.8</v>
+        <v>983.2</v>
       </c>
       <c r="J94" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K94" t="n">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>0.6</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>29</v>
+        <v>19388</v>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D95" t="n">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4899,45 +4899,45 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>21.6</v>
+        <v>27.8</v>
       </c>
       <c r="H95" t="n">
-        <v>37.5</v>
+        <v>43.1</v>
       </c>
       <c r="I95" t="n">
-        <v>1007.1</v>
+        <v>983.2</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="K95" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>67</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4946,45 +4946,45 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>21.6</v>
+        <v>16.1</v>
       </c>
       <c r="H96" t="n">
-        <v>37.5</v>
+        <v>48.6</v>
       </c>
       <c r="I96" t="n">
-        <v>1007.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K96" t="n">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B97" t="n">
         <v>5</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D97" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4993,92 +4993,92 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>21.6</v>
+        <v>16.1</v>
       </c>
       <c r="H97" t="n">
-        <v>37.5</v>
+        <v>48.6</v>
       </c>
       <c r="I97" t="n">
-        <v>1007.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J97" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K97" t="n">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>32.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B98" t="n">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D98" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>22</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
           <t>o3</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="H98" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1007.1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K98" t="n">
-        <v>147</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>co</t>
-        </is>
-      </c>
       <c r="M98" t="n">
-        <v>0.1</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B99" t="n">
         <v>5</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D99" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5087,73 +5087,1248 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>21.6</v>
+        <v>16.1</v>
       </c>
       <c r="H99" t="n">
-        <v>37.5</v>
+        <v>48.6</v>
       </c>
       <c r="I99" t="n">
-        <v>1007.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K99" t="n">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>26.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B100" t="n">
         <v>5</v>
       </c>
       <c r="C100" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D100" t="n">
+        <v>70</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>24</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D101" t="n">
+        <v>70</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>25</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>21</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D102" t="n">
+        <v>63</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H102" t="n">
+        <v>45</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>101</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>21</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D103" t="n">
+        <v>63</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H103" t="n">
+        <v>45</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>102</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>21</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D104" t="n">
+        <v>63</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H104" t="n">
+        <v>45</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>103</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>21</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D105" t="n">
+        <v>63</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H105" t="n">
+        <v>45</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K105" t="n">
+        <v>104</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>21</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D106" t="n">
+        <v>63</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H106" t="n">
+        <v>45</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>105</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>21</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D107" t="n">
+        <v>63</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H107" t="n">
+        <v>45</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>106</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D108" t="n">
+        <v>24</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H108" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K108" t="n">
+        <v>95</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D109" t="n">
+        <v>24</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H109" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>96</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H110" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K110" t="n">
+        <v>97</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H111" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K111" t="n">
+        <v>98</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>20</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D112" t="n">
+        <v>24</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H112" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K112" t="n">
+        <v>99</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>20</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H113" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K113" t="n">
+        <v>100</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>29</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2" t="n">
         <v>45759.54166666666</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D114" t="n">
         <v>33</v>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>o3</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
         <v>21.6</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H114" t="n">
         <v>37.5</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I114" t="n">
         <v>1007.1</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J114" t="n">
         <v>0.5</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K114" t="n">
+        <v>144</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>29</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D115" t="n">
+        <v>33</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H115" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>145</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>29</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D116" t="n">
+        <v>33</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H116" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K116" t="n">
+        <v>146</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>29</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D117" t="n">
+        <v>33</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H117" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>147</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>29</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D118" t="n">
+        <v>33</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H118" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>148</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>29</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D119" t="n">
+        <v>33</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K119" t="n">
         <v>149</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>so2</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="M119" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D120" t="n">
+        <v>91</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H120" t="n">
+        <v>88</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K120" t="n">
+        <v>169</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D121" t="n">
+        <v>91</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H121" t="n">
+        <v>88</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K121" t="n">
+        <v>170</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D122" t="n">
+        <v>91</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>88</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>171</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D123" t="n">
+        <v>91</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H123" t="n">
+        <v>88</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>172</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D124" t="n">
+        <v>91</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H124" t="n">
+        <v>88</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>173</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D125" t="n">
+        <v>91</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>88</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>174</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/powerbi/waqi_data.xlsx
+++ b/powerbi/waqi_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,16 +1916,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>19390</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45759.16666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1938,19 +1938,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>13.3</v>
       </c>
       <c r="H32" t="n">
-        <v>97</v>
+        <v>92.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1014.9</v>
+        <v>1034.5</v>
       </c>
       <c r="J32" t="n">
-        <v>11</v>
+        <v>0.2</v>
       </c>
       <c r="K32" t="n">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1958,21 +1958,21 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>19390</v>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45759.20833333334</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1985,41 +1985,41 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>13.3</v>
       </c>
       <c r="H33" t="n">
-        <v>97</v>
+        <v>92.2</v>
       </c>
       <c r="I33" t="n">
-        <v>1014.7</v>
+        <v>1034.5</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K33" t="n">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>26</v>
+        <v>19390</v>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45759.29166666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2032,41 +2032,41 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>13.3</v>
       </c>
       <c r="H34" t="n">
-        <v>97</v>
+        <v>92.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1014.6</v>
+        <v>1034.5</v>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>9</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19386</v>
+        <v>19390</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45759.45833333334</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2079,45 +2079,45 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.8</v>
+        <v>13.3</v>
       </c>
       <c r="H35" t="n">
-        <v>96.3</v>
+        <v>92.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1015</v>
+        <v>1034.5</v>
       </c>
       <c r="J35" t="n">
-        <v>12.6</v>
+        <v>0.2</v>
       </c>
       <c r="K35" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>11</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>19390</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D36" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2126,45 +2126,45 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H36" t="n">
-        <v>19</v>
+        <v>92.2</v>
       </c>
       <c r="I36" t="n">
-        <v>1009</v>
+        <v>1034.5</v>
       </c>
       <c r="J36" t="n">
-        <v>14.9</v>
+        <v>0.2</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>68</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>19390</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2173,45 +2173,45 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H37" t="n">
-        <v>19</v>
+        <v>92.2</v>
       </c>
       <c r="I37" t="n">
-        <v>1009</v>
+        <v>1034.5</v>
       </c>
       <c r="J37" t="n">
-        <v>14.9</v>
+        <v>0.2</v>
       </c>
       <c r="K37" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>74</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.16666666666</v>
       </c>
       <c r="D38" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2220,45 +2220,45 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>97</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1014.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11</v>
+      </c>
+      <c r="K38" t="n">
+        <v>57</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>10</v>
-      </c>
-      <c r="H38" t="n">
-        <v>19</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J38" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>34.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.20833333334</v>
       </c>
       <c r="D39" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2267,45 +2267,45 @@
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>97</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>82</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>10</v>
-      </c>
-      <c r="H39" t="n">
-        <v>19</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1009</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>co</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.29166666666</v>
       </c>
       <c r="D40" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2314,45 +2314,45 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="I40" t="n">
-        <v>1009</v>
+        <v>1014.6</v>
       </c>
       <c r="J40" t="n">
-        <v>14.9</v>
+        <v>9</v>
       </c>
       <c r="K40" t="n">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>19386</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.45833333334</v>
       </c>
       <c r="D41" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2361,45 +2361,45 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
-        <v>19</v>
+        <v>96.3</v>
       </c>
       <c r="I41" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="J41" t="n">
-        <v>14.9</v>
+        <v>12.6</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>3.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18</v>
+        <v>19391</v>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45759.75</v>
+        <v>45760.16666666666</v>
       </c>
       <c r="D42" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2408,19 +2408,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="n">
-        <v>19</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="J42" t="n">
-        <v>14.9</v>
+        <v>5.2</v>
       </c>
       <c r="K42" t="n">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2428,21 +2428,21 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B43" t="n">
         <v>3</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D43" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2467,29 +2467,29 @@
         <v>14.9</v>
       </c>
       <c r="K43" t="n">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D44" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2514,29 +2514,29 @@
         <v>14.9</v>
       </c>
       <c r="K44" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>32.9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D45" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2561,29 +2561,29 @@
         <v>14.9</v>
       </c>
       <c r="K45" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1.9</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D46" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2608,11 +2608,11 @@
         <v>14.9</v>
       </c>
       <c r="K46" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2621,16 +2621,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B47" t="n">
         <v>3</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D47" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2655,29 +2655,29 @@
         <v>14.9</v>
       </c>
       <c r="K47" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D48" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2690,41 +2690,41 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J48" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K48" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>74</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B49" t="n">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D49" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2737,88 +2737,88 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J49" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K49" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D50" t="n">
+        <v>75</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>19</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1009</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K50" t="n">
         <v>84</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>9</v>
-      </c>
-      <c r="H50" t="n">
-        <v>20</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1010</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>115</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
       <c r="M50" t="n">
-        <v>33.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D51" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2831,41 +2831,41 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J51" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K51" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1.9</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D52" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,41 +2878,41 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J52" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K52" t="n">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B53" t="n">
         <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45759.79166666666</v>
+        <v>45759.75</v>
       </c>
       <c r="D53" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2925,41 +2925,41 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J53" t="n">
-        <v>11.3</v>
+        <v>14.9</v>
       </c>
       <c r="K53" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B54" t="n">
         <v>3</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D54" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2972,41 +2972,41 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J54" t="n">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="K54" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>74</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D55" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3028,32 +3028,32 @@
         <v>1010</v>
       </c>
       <c r="J55" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K55" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B56" t="n">
         <v>3</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D56" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -3075,32 +3075,32 @@
         <v>1010</v>
       </c>
       <c r="J56" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K56" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>32.9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B57" t="n">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D57" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3122,32 +3122,32 @@
         <v>1010</v>
       </c>
       <c r="J57" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K57" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>2.8</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D58" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3169,14 +3169,14 @@
         <v>1010</v>
       </c>
       <c r="J58" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K58" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -3185,16 +3185,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B59" t="n">
         <v>3</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45759.83333333334</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D59" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3216,32 +3216,32 @@
         <v>1010</v>
       </c>
       <c r="J59" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="K59" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>19387</v>
+        <v>23</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45760.04166666666</v>
+        <v>45759.79166666666</v>
       </c>
       <c r="D60" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3254,41 +3254,41 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I60" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J60" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="K60" t="n">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>38</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19387</v>
+        <v>27</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45760.04166666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D61" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3301,41 +3301,41 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I61" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J61" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="K61" t="n">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>19387</v>
+        <v>27</v>
       </c>
       <c r="B62" t="n">
         <v>3</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45760.04166666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D62" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3348,41 +3348,41 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H62" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I62" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J62" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="K62" t="n">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>32.9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>19387</v>
+        <v>27</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45760.04166666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D63" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3395,41 +3395,41 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H63" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I63" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J63" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="K63" t="n">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1.9</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>19387</v>
+        <v>27</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45760.04166666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D64" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3442,41 +3442,41 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I64" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J64" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="K64" t="n">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>19387</v>
+        <v>27</v>
       </c>
       <c r="B65" t="n">
         <v>3</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45760.04166666666</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D65" t="n">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3489,45 +3489,45 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I65" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J65" t="n">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="K65" t="n">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45759.625</v>
+        <v>45759.83333333334</v>
       </c>
       <c r="D66" t="n">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3536,45 +3536,45 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>32.8</v>
+        <v>9</v>
       </c>
       <c r="H66" t="n">
-        <v>37.05</v>
+        <v>20</v>
       </c>
       <c r="I66" t="n">
-        <v>981.3</v>
+        <v>1010</v>
       </c>
       <c r="J66" t="n">
-        <v>1.15</v>
+        <v>11.8</v>
       </c>
       <c r="K66" t="n">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>144</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>19387</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45759.625</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D67" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3583,45 +3583,45 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>32.8</v>
+        <v>8</v>
       </c>
       <c r="H67" t="n">
-        <v>37.05</v>
+        <v>16</v>
       </c>
       <c r="I67" t="n">
-        <v>981.3</v>
+        <v>1007</v>
       </c>
       <c r="J67" t="n">
-        <v>1.15</v>
+        <v>10.8</v>
       </c>
       <c r="K67" t="n">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4</v>
+        <v>19387</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45759.625</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D68" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3630,45 +3630,45 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>32.8</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
-        <v>37.05</v>
+        <v>16</v>
       </c>
       <c r="I68" t="n">
-        <v>981.3</v>
+        <v>1007</v>
       </c>
       <c r="J68" t="n">
-        <v>1.15</v>
+        <v>10.8</v>
       </c>
       <c r="K68" t="n">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>94.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4</v>
+        <v>19387</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45759.625</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D69" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3677,45 +3677,45 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>32.8</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
-        <v>37.05</v>
+        <v>16</v>
       </c>
       <c r="I69" t="n">
-        <v>981.3</v>
+        <v>1007</v>
       </c>
       <c r="J69" t="n">
-        <v>1.15</v>
+        <v>10.8</v>
       </c>
       <c r="K69" t="n">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>5.2</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4</v>
+        <v>19387</v>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45759.625</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D70" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3724,45 +3724,45 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>32.8</v>
+        <v>8</v>
       </c>
       <c r="H70" t="n">
-        <v>37.05</v>
+        <v>16</v>
       </c>
       <c r="I70" t="n">
-        <v>981.3</v>
+        <v>1007</v>
       </c>
       <c r="J70" t="n">
-        <v>1.15</v>
+        <v>10.8</v>
       </c>
       <c r="K70" t="n">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>8.9</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>19387</v>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45759.625</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D71" t="n">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3771,45 +3771,45 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>32.8</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
-        <v>37.05</v>
+        <v>16</v>
       </c>
       <c r="I71" t="n">
-        <v>981.3</v>
+        <v>1007</v>
       </c>
       <c r="J71" t="n">
-        <v>1.15</v>
+        <v>10.8</v>
       </c>
       <c r="K71" t="n">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>8.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>19</v>
+        <v>19387</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.04166666666</v>
       </c>
       <c r="D72" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3818,45 +3818,45 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>32.825</v>
+        <v>8</v>
       </c>
       <c r="H72" t="n">
-        <v>36.8</v>
+        <v>16</v>
       </c>
       <c r="I72" t="n">
-        <v>981.125</v>
+        <v>1007</v>
       </c>
       <c r="J72" t="n">
-        <v>1.05</v>
+        <v>10.8</v>
       </c>
       <c r="K72" t="n">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>124</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>19</v>
+        <v>19392</v>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.75</v>
       </c>
       <c r="D73" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3865,45 +3865,45 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>32.825</v>
+        <v>10</v>
       </c>
       <c r="H73" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="I73" t="n">
-        <v>981.125</v>
+        <v>1005</v>
       </c>
       <c r="J73" t="n">
-        <v>1.05</v>
+        <v>12.8</v>
       </c>
       <c r="K73" t="n">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>19</v>
+        <v>19392</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.75</v>
       </c>
       <c r="D74" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3912,45 +3912,45 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>32.825</v>
+        <v>10</v>
       </c>
       <c r="H74" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="I74" t="n">
-        <v>981.125</v>
+        <v>1005</v>
       </c>
       <c r="J74" t="n">
-        <v>1.05</v>
+        <v>12.8</v>
       </c>
       <c r="K74" t="n">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>78.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>19</v>
+        <v>19392</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.75</v>
       </c>
       <c r="D75" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3959,45 +3959,45 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>32.825</v>
+        <v>10</v>
       </c>
       <c r="H75" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="I75" t="n">
-        <v>981.125</v>
+        <v>1005</v>
       </c>
       <c r="J75" t="n">
-        <v>1.05</v>
+        <v>12.8</v>
       </c>
       <c r="K75" t="n">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>4.6</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>19</v>
+        <v>19392</v>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.75</v>
       </c>
       <c r="D76" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4006,45 +4006,45 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>32.825</v>
+        <v>10</v>
       </c>
       <c r="H76" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="I76" t="n">
-        <v>981.125</v>
+        <v>1005</v>
       </c>
       <c r="J76" t="n">
-        <v>1.05</v>
+        <v>12.8</v>
       </c>
       <c r="K76" t="n">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>19</v>
+        <v>19392</v>
       </c>
       <c r="B77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.75</v>
       </c>
       <c r="D77" t="n">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4053,45 +4053,45 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>32.825</v>
+        <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>36.8</v>
+        <v>25</v>
       </c>
       <c r="I77" t="n">
-        <v>981.125</v>
+        <v>1005</v>
       </c>
       <c r="J77" t="n">
-        <v>1.05</v>
+        <v>12.8</v>
       </c>
       <c r="K77" t="n">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>24</v>
+        <v>19392</v>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45760.75</v>
       </c>
       <c r="D78" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4100,41 +4100,41 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>32.275</v>
+        <v>10</v>
       </c>
       <c r="H78" t="n">
-        <v>37.325</v>
+        <v>25</v>
       </c>
       <c r="I78" t="n">
-        <v>980.9</v>
+        <v>1005</v>
       </c>
       <c r="J78" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="K78" t="n">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>95</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B79" t="n">
         <v>4</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D79" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4147,41 +4147,41 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H79" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I79" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J79" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K79" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B80" t="n">
         <v>4</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D80" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4194,41 +4194,41 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H80" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I80" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J80" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K80" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>75.5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B81" t="n">
         <v>4</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D81" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -4241,41 +4241,41 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H81" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I81" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J81" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K81" t="n">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>4.3</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B82" t="n">
         <v>4</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D82" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4288,41 +4288,41 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H82" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I82" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K82" t="n">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>7.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B83" t="n">
         <v>4</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45759.70833333334</v>
+        <v>45759.625</v>
       </c>
       <c r="D83" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4335,41 +4335,41 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>32.275</v>
+        <v>32.8</v>
       </c>
       <c r="H83" t="n">
-        <v>37.325</v>
+        <v>37.05</v>
       </c>
       <c r="I83" t="n">
-        <v>980.9</v>
+        <v>981.3</v>
       </c>
       <c r="J83" t="n">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="K83" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B84" t="n">
         <v>4</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.625</v>
       </c>
       <c r="D84" t="n">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4382,41 +4382,41 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>31.45</v>
+        <v>32.8</v>
       </c>
       <c r="H84" t="n">
-        <v>39.25</v>
+        <v>37.05</v>
       </c>
       <c r="I84" t="n">
-        <v>981.2</v>
+        <v>981.3</v>
       </c>
       <c r="J84" t="n">
-        <v>0.65</v>
+        <v>1.15</v>
       </c>
       <c r="K84" t="n">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>99</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B85" t="n">
         <v>4</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D85" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4429,41 +4429,41 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H85" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I85" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J85" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K85" t="n">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B86" t="n">
         <v>4</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D86" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4476,41 +4476,41 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H86" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I86" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J86" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K86" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>60.1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B87" t="n">
         <v>4</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D87" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4523,41 +4523,41 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H87" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I87" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J87" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K87" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>5.5</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B88" t="n">
         <v>4</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D88" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4570,41 +4570,41 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H88" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I88" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J88" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K88" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>13.9</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45759.75</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D89" t="n">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4617,41 +4617,41 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>31.45</v>
+        <v>32.825</v>
       </c>
       <c r="H89" t="n">
-        <v>39.25</v>
+        <v>36.8</v>
       </c>
       <c r="I89" t="n">
-        <v>981.2</v>
+        <v>981.125</v>
       </c>
       <c r="J89" t="n">
-        <v>0.65</v>
+        <v>1.05</v>
       </c>
       <c r="K89" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>19388</v>
+        <v>19</v>
       </c>
       <c r="B90" t="n">
         <v>4</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45759.95833333334</v>
+        <v>45759.66666666666</v>
       </c>
       <c r="D90" t="n">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4664,41 +4664,41 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>27.8</v>
+        <v>32.825</v>
       </c>
       <c r="H90" t="n">
-        <v>43.1</v>
+        <v>36.8</v>
       </c>
       <c r="I90" t="n">
-        <v>983.2</v>
+        <v>981.125</v>
       </c>
       <c r="J90" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K90" t="n">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>152</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>19388</v>
+        <v>24</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45759.95833333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D91" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4711,41 +4711,41 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>27.8</v>
+        <v>32.275</v>
       </c>
       <c r="H91" t="n">
-        <v>43.1</v>
+        <v>37.325</v>
       </c>
       <c r="I91" t="n">
-        <v>983.2</v>
+        <v>980.9</v>
       </c>
       <c r="J91" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K91" t="n">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>19388</v>
+        <v>24</v>
       </c>
       <c r="B92" t="n">
         <v>4</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45759.95833333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D92" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4758,41 +4758,41 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>27.8</v>
+        <v>32.275</v>
       </c>
       <c r="H92" t="n">
-        <v>43.1</v>
+        <v>37.325</v>
       </c>
       <c r="I92" t="n">
-        <v>983.2</v>
+        <v>980.9</v>
       </c>
       <c r="J92" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K92" t="n">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>24.1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19388</v>
+        <v>24</v>
       </c>
       <c r="B93" t="n">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45759.95833333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D93" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4805,41 +4805,41 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>27.8</v>
+        <v>32.275</v>
       </c>
       <c r="H93" t="n">
-        <v>43.1</v>
+        <v>37.325</v>
       </c>
       <c r="I93" t="n">
-        <v>983.2</v>
+        <v>980.9</v>
       </c>
       <c r="J93" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K93" t="n">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>5.9</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>19388</v>
+        <v>24</v>
       </c>
       <c r="B94" t="n">
         <v>4</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45759.95833333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D94" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4852,41 +4852,41 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>27.8</v>
+        <v>32.275</v>
       </c>
       <c r="H94" t="n">
-        <v>43.1</v>
+        <v>37.325</v>
       </c>
       <c r="I94" t="n">
-        <v>983.2</v>
+        <v>980.9</v>
       </c>
       <c r="J94" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K94" t="n">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>15.6</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>19388</v>
+        <v>24</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45759.95833333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D95" t="n">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4899,41 +4899,41 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>27.8</v>
+        <v>32.275</v>
       </c>
       <c r="H95" t="n">
-        <v>43.1</v>
+        <v>37.325</v>
       </c>
       <c r="I95" t="n">
-        <v>983.2</v>
+        <v>980.9</v>
       </c>
       <c r="J95" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K95" t="n">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>9.800000000000001</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.70833333334</v>
       </c>
       <c r="D96" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4946,41 +4946,41 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>16.1</v>
+        <v>32.275</v>
       </c>
       <c r="H96" t="n">
-        <v>48.6</v>
+        <v>37.325</v>
       </c>
       <c r="I96" t="n">
-        <v>1009.4</v>
+        <v>980.9</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D97" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4993,41 +4993,41 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>16.1</v>
+        <v>31.45</v>
       </c>
       <c r="H97" t="n">
-        <v>48.6</v>
+        <v>39.25</v>
       </c>
       <c r="I97" t="n">
-        <v>1009.4</v>
+        <v>981.2</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="K97" t="n">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>29</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D98" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5040,41 +5040,41 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>16.1</v>
+        <v>31.45</v>
       </c>
       <c r="H98" t="n">
-        <v>48.6</v>
+        <v>39.25</v>
       </c>
       <c r="I98" t="n">
-        <v>1009.4</v>
+        <v>981.2</v>
       </c>
       <c r="J98" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="K98" t="n">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>27.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D99" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5087,41 +5087,41 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>16.1</v>
+        <v>31.45</v>
       </c>
       <c r="H99" t="n">
-        <v>48.6</v>
+        <v>39.25</v>
       </c>
       <c r="I99" t="n">
-        <v>1009.4</v>
+        <v>981.2</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="K99" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>0.1</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D100" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5134,41 +5134,41 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>16.1</v>
+        <v>31.45</v>
       </c>
       <c r="H100" t="n">
-        <v>48.6</v>
+        <v>39.25</v>
       </c>
       <c r="I100" t="n">
-        <v>1009.4</v>
+        <v>981.2</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="K100" t="n">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>33.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45759.33333333334</v>
+        <v>45759.75</v>
       </c>
       <c r="D101" t="n">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5181,41 +5181,41 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>16.1</v>
+        <v>31.45</v>
       </c>
       <c r="H101" t="n">
-        <v>48.6</v>
+        <v>39.25</v>
       </c>
       <c r="I101" t="n">
-        <v>1009.4</v>
+        <v>981.2</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="K101" t="n">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>0.6</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.75</v>
       </c>
       <c r="D102" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5228,41 +5228,41 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>18.7</v>
+        <v>31.45</v>
       </c>
       <c r="H102" t="n">
-        <v>45</v>
+        <v>39.25</v>
       </c>
       <c r="I102" t="n">
-        <v>1008.7</v>
+        <v>981.2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.2</v>
+        <v>0.65</v>
       </c>
       <c r="K102" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>63</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>21</v>
+        <v>19388</v>
       </c>
       <c r="B103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D103" t="n">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5275,41 +5275,41 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>18.7</v>
+        <v>27.8</v>
       </c>
       <c r="H103" t="n">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="I103" t="n">
-        <v>1008.7</v>
+        <v>983.2</v>
       </c>
       <c r="J103" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K103" t="n">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>21</v>
+        <v>19388</v>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D104" t="n">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5322,41 +5322,41 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>18.7</v>
+        <v>27.8</v>
       </c>
       <c r="H104" t="n">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="I104" t="n">
-        <v>1008.7</v>
+        <v>983.2</v>
       </c>
       <c r="J104" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K104" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>30.7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>21</v>
+        <v>19388</v>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D105" t="n">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5369,41 +5369,41 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>18.7</v>
+        <v>27.8</v>
       </c>
       <c r="H105" t="n">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="I105" t="n">
-        <v>1008.7</v>
+        <v>983.2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K105" t="n">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>0.1</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>21</v>
+        <v>19388</v>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D106" t="n">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5416,41 +5416,41 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>18.7</v>
+        <v>27.8</v>
       </c>
       <c r="H106" t="n">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="I106" t="n">
-        <v>1008.7</v>
+        <v>983.2</v>
       </c>
       <c r="J106" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K106" t="n">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>29</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>21</v>
+        <v>19388</v>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45759.375</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D107" t="n">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5463,45 +5463,45 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>18.7</v>
+        <v>27.8</v>
       </c>
       <c r="H107" t="n">
-        <v>45</v>
+        <v>43.1</v>
       </c>
       <c r="I107" t="n">
-        <v>1008.7</v>
+        <v>983.2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K107" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>0.6</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>20</v>
+        <v>19388</v>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45759.95833333334</v>
       </c>
       <c r="D108" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5510,45 +5510,45 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>18.3</v>
+        <v>27.8</v>
       </c>
       <c r="H108" t="n">
-        <v>45.5</v>
+        <v>43.1</v>
       </c>
       <c r="I108" t="n">
-        <v>1008.8</v>
+        <v>983.2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="K108" t="n">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>70</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>20</v>
+        <v>19393</v>
       </c>
       <c r="B109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45760.625</v>
       </c>
       <c r="D109" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5557,92 +5557,92 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="H109" t="n">
-        <v>45.5</v>
+        <v>33.83333333333334</v>
       </c>
       <c r="I109" t="n">
-        <v>1008.8</v>
+        <v>982.4666666666666</v>
       </c>
       <c r="J109" t="n">
-        <v>1.5</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="K109" t="n">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>20</v>
+        <v>19393</v>
       </c>
       <c r="B110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45760.625</v>
       </c>
       <c r="D110" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="H110" t="n">
+        <v>33.83333333333334</v>
+      </c>
+      <c r="I110" t="n">
+        <v>982.4666666666666</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.9666666666666668</v>
+      </c>
+      <c r="K110" t="n">
+        <v>189</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
           <t>pm10</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="H110" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1008.8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K110" t="n">
-        <v>97</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>o3</t>
-        </is>
-      </c>
       <c r="M110" t="n">
-        <v>17.6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>20</v>
+        <v>19393</v>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45760.625</v>
       </c>
       <c r="D111" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5651,45 +5651,45 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="H111" t="n">
-        <v>45.5</v>
+        <v>33.83333333333334</v>
       </c>
       <c r="I111" t="n">
-        <v>1008.8</v>
+        <v>982.4666666666666</v>
       </c>
       <c r="J111" t="n">
-        <v>1.5</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="K111" t="n">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>0.1</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>20</v>
+        <v>19393</v>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45760.625</v>
       </c>
       <c r="D112" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5698,45 +5698,45 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="H112" t="n">
-        <v>45.5</v>
+        <v>33.83333333333334</v>
       </c>
       <c r="I112" t="n">
-        <v>1008.8</v>
+        <v>982.4666666666666</v>
       </c>
       <c r="J112" t="n">
-        <v>1.5</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="K112" t="n">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>29</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>20</v>
+        <v>19393</v>
       </c>
       <c r="B113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45759.41666666666</v>
+        <v>45760.625</v>
       </c>
       <c r="D113" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5745,45 +5745,45 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>18.3</v>
+        <v>33.9</v>
       </c>
       <c r="H113" t="n">
-        <v>45.5</v>
+        <v>33.83333333333334</v>
       </c>
       <c r="I113" t="n">
-        <v>1008.8</v>
+        <v>982.4666666666666</v>
       </c>
       <c r="J113" t="n">
-        <v>1.5</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="K113" t="n">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>0.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>29</v>
+        <v>19393</v>
       </c>
       <c r="B114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45760.625</v>
       </c>
       <c r="D114" t="n">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5792,45 +5792,45 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>21.6</v>
+        <v>33.9</v>
       </c>
       <c r="H114" t="n">
-        <v>37.5</v>
+        <v>33.83333333333334</v>
       </c>
       <c r="I114" t="n">
-        <v>1007.1</v>
+        <v>982.4666666666666</v>
       </c>
       <c r="J114" t="n">
-        <v>0.5</v>
+        <v>0.9666666666666668</v>
       </c>
       <c r="K114" t="n">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>67</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>29</v>
+        <v>19395</v>
       </c>
       <c r="B115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45760.66666666666</v>
       </c>
       <c r="D115" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5839,45 +5839,45 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>21.6</v>
+        <v>33.925</v>
       </c>
       <c r="H115" t="n">
-        <v>37.5</v>
+        <v>33.825</v>
       </c>
       <c r="I115" t="n">
-        <v>1007.1</v>
+        <v>982.375</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="K115" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>29</v>
+        <v>19395</v>
       </c>
       <c r="B116" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45760.66666666666</v>
       </c>
       <c r="D116" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5886,92 +5886,92 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>21.6</v>
+        <v>33.925</v>
       </c>
       <c r="H116" t="n">
-        <v>37.5</v>
+        <v>33.825</v>
       </c>
       <c r="I116" t="n">
-        <v>1007.1</v>
+        <v>982.375</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="K116" t="n">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>32.5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>29</v>
+        <v>19395</v>
       </c>
       <c r="B117" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45760.66666666666</v>
       </c>
       <c r="D117" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>33.925</v>
+      </c>
+      <c r="H117" t="n">
+        <v>33.825</v>
+      </c>
+      <c r="I117" t="n">
+        <v>982.375</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="K117" t="n">
+        <v>202</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>o3</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="H117" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1007.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K117" t="n">
-        <v>147</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>co</t>
-        </is>
-      </c>
       <c r="M117" t="n">
-        <v>0.1</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>29</v>
+        <v>19395</v>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45760.66666666666</v>
       </c>
       <c r="D118" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5980,45 +5980,45 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>21.6</v>
+        <v>33.925</v>
       </c>
       <c r="H118" t="n">
-        <v>37.5</v>
+        <v>33.825</v>
       </c>
       <c r="I118" t="n">
-        <v>1007.1</v>
+        <v>982.375</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="K118" t="n">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>26.1</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>29</v>
+        <v>19395</v>
       </c>
       <c r="B119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45759.54166666666</v>
+        <v>45760.66666666666</v>
       </c>
       <c r="D119" t="n">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6027,41 +6027,41 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>21.6</v>
+        <v>33.925</v>
       </c>
       <c r="H119" t="n">
-        <v>37.5</v>
+        <v>33.825</v>
       </c>
       <c r="I119" t="n">
-        <v>1007.1</v>
+        <v>982.375</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="K119" t="n">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>so2</t>
+          <t>no2</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>0.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>19389</v>
+        <v>19395</v>
       </c>
       <c r="B120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45760.66666666666</v>
       </c>
       <c r="D120" t="n">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6074,41 +6074,41 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>14.6</v>
+        <v>33.925</v>
       </c>
       <c r="H120" t="n">
-        <v>88</v>
+        <v>33.825</v>
       </c>
       <c r="I120" t="n">
-        <v>1006.1</v>
+        <v>982.375</v>
       </c>
       <c r="J120" t="n">
-        <v>0.3</v>
+        <v>0.825</v>
       </c>
       <c r="K120" t="n">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>pm25</t>
+          <t>so2</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>91</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>19389</v>
+        <v>5</v>
       </c>
       <c r="B121" t="n">
         <v>5</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D121" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -6121,41 +6121,41 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>14.6</v>
+        <v>16.1</v>
       </c>
       <c r="H121" t="n">
-        <v>88</v>
+        <v>48.6</v>
       </c>
       <c r="I121" t="n">
-        <v>1006.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J121" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K121" t="n">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>pm10</t>
+          <t>pm25</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>19389</v>
+        <v>5</v>
       </c>
       <c r="B122" t="n">
         <v>5</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D122" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6168,41 +6168,41 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>14.6</v>
+        <v>16.1</v>
       </c>
       <c r="H122" t="n">
-        <v>88</v>
+        <v>48.6</v>
       </c>
       <c r="I122" t="n">
-        <v>1006.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K122" t="n">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>o3</t>
+          <t>pm10</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>39.7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>19389</v>
+        <v>5</v>
       </c>
       <c r="B123" t="n">
         <v>5</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D123" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6215,41 +6215,41 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>14.6</v>
+        <v>16.1</v>
       </c>
       <c r="H123" t="n">
-        <v>88</v>
+        <v>48.6</v>
       </c>
       <c r="I123" t="n">
-        <v>1006.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K123" t="n">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>co</t>
+          <t>o3</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>0.1</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>19389</v>
+        <v>5</v>
       </c>
       <c r="B124" t="n">
         <v>5</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45759.66666666666</v>
+        <v>45759.33333333334</v>
       </c>
       <c r="D124" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6262,73 +6262,1530 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>14.6</v>
+        <v>16.1</v>
       </c>
       <c r="H124" t="n">
-        <v>88</v>
+        <v>48.6</v>
       </c>
       <c r="I124" t="n">
-        <v>1006.1</v>
+        <v>1009.4</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K124" t="n">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>no2</t>
+          <t>co</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>22.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>19389</v>
+        <v>5</v>
       </c>
       <c r="B125" t="n">
         <v>5</v>
       </c>
       <c r="C125" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D125" t="n">
+        <v>70</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>24</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>45759.33333333334</v>
+      </c>
+      <c r="D126" t="n">
+        <v>70</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K126" t="n">
+        <v>25</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>21</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D127" t="n">
+        <v>63</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>45</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>101</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>21</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D128" t="n">
+        <v>63</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H128" t="n">
+        <v>45</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>102</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>21</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D129" t="n">
+        <v>63</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>45</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K129" t="n">
+        <v>103</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>21</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D130" t="n">
+        <v>63</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H130" t="n">
+        <v>45</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K130" t="n">
+        <v>104</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>21</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D131" t="n">
+        <v>63</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H131" t="n">
+        <v>45</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K131" t="n">
+        <v>105</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>21</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>45759.375</v>
+      </c>
+      <c r="D132" t="n">
+        <v>63</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H132" t="n">
+        <v>45</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1008.7</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>106</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>20</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K133" t="n">
+        <v>95</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>20</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D134" t="n">
+        <v>24</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>96</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>20</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D135" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H135" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K135" t="n">
+        <v>97</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>20</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D136" t="n">
+        <v>24</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H136" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>98</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>20</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D137" t="n">
+        <v>24</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H137" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>99</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>20</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>45759.41666666666</v>
+      </c>
+      <c r="D138" t="n">
+        <v>24</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H138" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1008.8</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>100</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>29</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D139" t="n">
+        <v>33</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H139" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>144</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>29</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D140" t="n">
+        <v>33</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H140" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>145</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>29</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D141" t="n">
+        <v>33</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K141" t="n">
+        <v>146</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>29</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D142" t="n">
+        <v>33</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K142" t="n">
+        <v>147</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>29</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D143" t="n">
+        <v>33</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K143" t="n">
+        <v>148</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>29</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>45759.54166666666</v>
+      </c>
+      <c r="D144" t="n">
+        <v>33</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H144" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1007.1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K144" t="n">
+        <v>149</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" s="2" t="n">
         <v>45759.66666666666</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D145" t="n">
         <v>91</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>pm25</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>waqi</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
         <v>14.6</v>
       </c>
-      <c r="H125" t="n">
+      <c r="H145" t="n">
         <v>88</v>
       </c>
-      <c r="I125" t="n">
+      <c r="I145" t="n">
         <v>1006.1</v>
       </c>
-      <c r="J125" t="n">
+      <c r="J145" t="n">
         <v>0.3</v>
       </c>
-      <c r="K125" t="n">
+      <c r="K145" t="n">
+        <v>169</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D146" t="n">
+        <v>91</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H146" t="n">
+        <v>88</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>170</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D147" t="n">
+        <v>91</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H147" t="n">
+        <v>88</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>171</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D148" t="n">
+        <v>91</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>88</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K148" t="n">
+        <v>172</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D149" t="n">
+        <v>91</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H149" t="n">
+        <v>88</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>173</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>19389</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>45759.66666666666</v>
+      </c>
+      <c r="D150" t="n">
+        <v>91</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H150" t="n">
+        <v>88</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1006.1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K150" t="n">
         <v>174</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="L150" t="inlineStr">
         <is>
           <t>so2</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="M150" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>19394</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>45760.375</v>
+      </c>
+      <c r="D151" t="n">
+        <v>53</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H151" t="n">
+        <v>76</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="J151" t="n">
+        <v>9</v>
+      </c>
+      <c r="K151" t="n">
+        <v>194</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>19394</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45760.375</v>
+      </c>
+      <c r="D152" t="n">
+        <v>53</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>76</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9</v>
+      </c>
+      <c r="K152" t="n">
+        <v>195</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>19394</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>45760.375</v>
+      </c>
+      <c r="D153" t="n">
+        <v>53</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H153" t="n">
+        <v>76</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="J153" t="n">
+        <v>9</v>
+      </c>
+      <c r="K153" t="n">
+        <v>196</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>19394</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>45760.375</v>
+      </c>
+      <c r="D154" t="n">
+        <v>53</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>76</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="J154" t="n">
+        <v>9</v>
+      </c>
+      <c r="K154" t="n">
+        <v>197</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>19394</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>45760.375</v>
+      </c>
+      <c r="D155" t="n">
+        <v>53</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>76</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9</v>
+      </c>
+      <c r="K155" t="n">
+        <v>198</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>19394</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>45760.375</v>
+      </c>
+      <c r="D156" t="n">
+        <v>53</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H156" t="n">
+        <v>76</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1009.5</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>199</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/powerbi/waqi_data.xlsx
+++ b/powerbi/waqi_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M156"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7789,6 +7789,288 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>19396</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>45760.45833333334</v>
+      </c>
+      <c r="D157" t="n">
+        <v>30</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H157" t="n">
+        <v>76</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K157" t="n">
+        <v>206</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>pm25</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>19396</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>45760.45833333334</v>
+      </c>
+      <c r="D158" t="n">
+        <v>30</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H158" t="n">
+        <v>76</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K158" t="n">
+        <v>207</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>19396</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>45760.45833333334</v>
+      </c>
+      <c r="D159" t="n">
+        <v>30</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H159" t="n">
+        <v>76</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K159" t="n">
+        <v>208</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>19396</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>45760.45833333334</v>
+      </c>
+      <c r="D160" t="n">
+        <v>30</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H160" t="n">
+        <v>76</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K160" t="n">
+        <v>209</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>co</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>19396</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>45760.45833333334</v>
+      </c>
+      <c r="D161" t="n">
+        <v>30</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>76</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K161" t="n">
+        <v>210</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>no2</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>19396</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>45760.45833333334</v>
+      </c>
+      <c r="D162" t="n">
+        <v>30</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>o3</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>waqi</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H162" t="n">
+        <v>76</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1010</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K162" t="n">
+        <v>211</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>so2</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
